--- a/Returns.xlsx
+++ b/Returns.xlsx
@@ -1,16 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skiwheelr/3darbitrage/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96BFB25-714E-C043-A4BC-5531B2FC442F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="3280" yWindow="1460" windowWidth="25600" windowHeight="16260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Day</t>
   </si>
@@ -35,16 +49,91 @@
   <si>
     <t>Return/Day</t>
   </si>
+  <si>
+    <t>BTC-ETH - {'ask': {'price': 0.02270704, 'amount': 4.75747194}, 'bid': {'price': 0.02269901, 'amount': 5.97353665}};</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>bid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ETH-LTC - {'ask': {'price': 0.21179002, 'amount': 51.504}, 'bid': {'price': 0.21117733, 'amount': 12.70757373}}; </t>
+  </si>
+  <si>
+    <t>BTC-LTC - {'ask': {'price': 0.00480344, 'amount': 24.555}, 'bid': {'price': 0.00479648, 'amount': 0.3151772}}</t>
+  </si>
+  <si>
+    <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>Ethereum</t>
+  </si>
+  <si>
+    <t>Litecoin</t>
+  </si>
+  <si>
+    <t>Bid</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>Ask</t>
+  </si>
+  <si>
+    <t>Bitstamp C 2 Fiat</t>
+  </si>
+  <si>
+    <t>BTC/USD</t>
+  </si>
+  <si>
+    <t>BTC/EUR</t>
+  </si>
+  <si>
+    <t>ETH/USD</t>
+  </si>
+  <si>
+    <t>ETH/EUR</t>
+  </si>
+  <si>
+    <t>ETH/BTC</t>
+  </si>
+  <si>
+    <t>EUR/USD</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>Perfect Market, fees @ 2%</t>
+  </si>
+  <si>
+    <t>BitStamp</t>
+  </si>
+  <si>
+    <t>Binance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -60,6 +149,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,14 +176,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -97,6 +194,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,21 +526,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+    <sheetView topLeftCell="A355" workbookViewId="0">
       <selection activeCell="D368" sqref="D368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -466,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -487,7 +592,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -508,7 +613,7 @@
         <v>401.60000000000582</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -529,7 +634,7 @@
         <v>403.20639999999548</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -550,7 +655,7 @@
         <v>404.81922560000385</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -571,7 +676,7 @@
         <v>406.43850250239484</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -592,7 +697,7 @@
         <v>408.06425651241443</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -613,7 +718,7 @@
         <v>409.69651353845256</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -634,7 +739,7 @@
         <v>411.33529959261068</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -655,7 +760,7 @@
         <v>412.98064079097821</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -676,7 +781,7 @@
         <v>414.63256335414189</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -697,7 +802,7 @@
         <v>416.29109360756411</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -718,7 +823,7 @@
         <v>417.95625798199035</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -739,7 +844,7 @@
         <v>419.62808301392943</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -760,7 +865,7 @@
         <v>421.30659534597362</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -781,7 +886,7 @@
         <v>422.99182172736619</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -802,7 +907,7 @@
         <v>424.68378901427786</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -823,7 +928,7 @@
         <v>426.38252417033073</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -844,7 +949,7 @@
         <v>428.08805426700565</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -865,7 +970,7 @@
         <v>429.80040648407885</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -886,7 +991,7 @@
         <v>431.51960811001481</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -907,7 +1012,7 @@
         <v>433.24568654246104</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -928,7 +1033,7 @@
         <v>434.97866928862641</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -949,7 +1054,7 @@
         <v>436.71858396577591</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -970,7 +1075,7 @@
         <v>438.46545830163814</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -991,7 +1096,7 @@
         <v>440.21932013484184</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1012,7 +1117,7 @@
         <v>441.98019741538155</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1033,7 +1138,7 @@
         <v>443.7481182050542</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1054,7 +1159,7 @@
         <v>445.5231106778665</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1075,7 +1180,7 @@
         <v>447.30520312058798</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1096,7 +1201,7 @@
         <v>449.09442393305653</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1117,7 +1222,7 @@
         <v>450.89080162878963</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1138,7 +1243,7 @@
         <v>452.69436483530444</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1159,7 +1264,7 @@
         <v>454.50514229465625</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1180,7 +1285,7 @@
         <v>456.32316286383139</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1201,7 +1306,7 @@
         <v>458.1484555152856</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1222,7 +1327,7 @@
         <v>459.98104933735158</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1243,7 +1348,7 @@
         <v>461.82097353468998</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1264,7 +1369,7 @@
         <v>463.66825742884248</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1285,7 +1390,7 @@
         <v>465.52293045855185</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1306,7 +1411,7 @@
         <v>467.38502218038775</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1327,7 +1432,7 @@
         <v>469.25456226911047</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1348,7 +1453,7 @@
         <v>471.13158051818027</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1369,7 +1474,7 @@
         <v>473.01610684025218</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1390,7 +1495,7 @@
         <v>474.90817126761249</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1411,7 +1516,7 @@
         <v>476.80780395268812</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1432,7 +1537,7 @@
         <v>478.71503516849771</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1453,7 +1558,7 @@
         <v>480.62989530917548</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1474,7 +1579,7 @@
         <v>482.55241489040782</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1495,7 +1600,7 @@
         <v>484.48262454997166</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1516,7 +1621,7 @@
         <v>486.42055504817108</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1537,7 +1642,7 @@
         <v>488.36623726836115</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1558,7 +1663,7 @@
         <v>490.31970221744268</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1579,7 +1684,7 @@
         <v>492.28098102629883</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1600,7 +1705,7 @@
         <v>494.25010495040624</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1621,7 +1726,7 @@
         <v>496.22710537021339</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1642,7 +1747,7 @@
         <v>498.21201379169361</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1663,7 +1768,7 @@
         <v>500.20486184685433</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1684,7 +1789,7 @@
         <v>502.20568129424646</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1705,7 +1810,7 @@
         <v>504.21450401943002</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1726,7 +1831,7 @@
         <v>506.23136203549802</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1747,7 +1852,7 @@
         <v>508.25628748364397</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1768,7 +1873,7 @@
         <v>510.2893126335839</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1789,7 +1894,7 @@
         <v>512.33046988410933</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1810,7 +1915,7 @@
         <v>514.37979176365479</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1831,7 +1936,7 @@
         <v>516.43731093070528</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1852,7 +1957,7 @@
         <v>518.50306017442199</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1873,7 +1978,7 @@
         <v>520.57707241512253</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1894,7 +1999,7 @@
         <v>522.65938070479024</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1915,7 +2020,7 @@
         <v>524.7500182276126</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1936,7 +2041,7 @@
         <v>526.84901830050512</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1957,7 +2062,7 @@
         <v>528.95641437370796</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1978,7 +2083,7 @@
         <v>531.07224003120791</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1999,7 +2104,7 @@
         <v>533.19652899133507</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2020,7 +2125,7 @@
         <v>535.32931510731578</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2041,7 +2146,7 @@
         <v>537.47063236773829</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2062,7 +2167,7 @@
         <v>539.62051489719306</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2083,7 +2188,7 @@
         <v>541.77899695679662</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2104,7 +2209,7 @@
         <v>543.94611294462811</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2125,7 +2230,7 @@
         <v>546.12189739639871</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2146,7 +2251,7 @@
         <v>548.30638498597546</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2167,7 +2272,7 @@
         <v>550.49961052593426</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2188,7 +2293,7 @@
         <v>552.70160896802554</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2209,7 +2314,7 @@
         <v>554.91241540390183</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2230,7 +2335,7 @@
         <v>557.13206506552524</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2251,7 +2356,7 @@
         <v>559.36059332577861</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2272,7 +2377,7 @@
         <v>561.59803569907672</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2293,7 +2398,7 @@
         <v>563.84442784189014</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2314,7 +2419,7 @@
         <v>566.09980555324</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2335,7 +2440,7 @@
         <v>568.36420477545471</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2356,7 +2461,7 @@
         <v>570.63766159454826</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2377,7 +2482,7 @@
         <v>572.92021224094788</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2398,7 +2503,7 @@
         <v>575.21189308990142</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2419,7 +2524,7 @@
         <v>577.51274066226324</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2440,7 +2545,7 @@
         <v>579.82279162490158</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2461,7 +2566,7 @@
         <v>582.14208279142622</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2482,7 +2587,7 @@
         <v>584.47065112256678</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2503,7 +2608,7 @@
         <v>586.80853372707497</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2524,7 +2629,7 @@
         <v>589.15576786198653</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2545,7 +2650,7 @@
         <v>591.51239093343611</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2566,7 +2671,7 @@
         <v>593.87844049715204</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2587,7 +2692,7 @@
         <v>596.25395425915485</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2608,7 +2713,7 @@
         <v>598.6389700761938</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2629,7 +2734,7 @@
         <v>601.03352595647448</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2650,7 +2755,7 @@
         <v>603.4376600603282</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2671,7 +2776,7 @@
         <v>605.85141070056125</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2692,7 +2797,7 @@
         <v>608.27481634335709</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -2713,7 +2818,7 @@
         <v>610.70791560874204</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2734,7 +2839,7 @@
         <v>613.15074727116735</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2755,7 +2860,7 @@
         <v>615.60335026023677</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -2776,7 +2881,7 @@
         <v>618.06576366128866</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2797,7 +2902,7 @@
         <v>620.53802671594894</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2818,7 +2923,7 @@
         <v>623.02017882280052</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -2839,7 +2944,7 @@
         <v>625.51225953808171</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -2860,7 +2965,7 @@
         <v>628.01430857623927</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -2881,7 +2986,7 @@
         <v>630.52636581053957</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -2902,7 +3007,7 @@
         <v>633.04847127379617</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -2923,7 +3028,7 @@
         <v>635.58066515889368</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -2944,7 +3049,7 @@
         <v>638.1229878195154</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -2965,7 +3070,7 @@
         <v>640.67547977081267</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -2986,7 +3091,7 @@
         <v>643.23818168987054</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3007,7 +3112,7 @@
         <v>645.81113441663911</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3028,7 +3133,7 @@
         <v>648.39437895431183</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3049,7 +3154,7 @@
         <v>650.98795647014049</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3070,7 +3175,7 @@
         <v>653.59190829601721</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3091,7 +3196,7 @@
         <v>656.20627592920209</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3112,7 +3217,7 @@
         <v>658.83110103290528</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3133,7 +3238,7 @@
         <v>661.46642543704365</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3154,7 +3259,7 @@
         <v>664.11229113879381</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3175,7 +3280,7 @@
         <v>666.76874030334875</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3196,7 +3301,7 @@
         <v>669.43581526455819</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -3217,7 +3322,7 @@
         <v>672.11355852562701</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -3238,7 +3343,7 @@
         <v>674.80201275972649</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -3259,7 +3364,7 @@
         <v>677.50122081075097</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -3280,7 +3385,7 @@
         <v>680.21122569398722</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -3301,7 +3406,7 @@
         <v>682.93207059678389</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -3322,7 +3427,7 @@
         <v>685.66379887916264</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -3343,7 +3448,7 @@
         <v>688.40645407469128</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -3364,7 +3469,7 @@
         <v>691.16007989097852</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -3385,7 +3490,7 @@
         <v>693.92472021054709</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -3406,7 +3511,7 @@
         <v>696.70041909138672</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -3427,7 +3532,7 @@
         <v>699.48722076773993</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -3448,7 +3553,7 @@
         <v>702.28516965082963</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -3469,7 +3574,7 @@
         <v>705.09431032941211</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -3490,7 +3595,7 @@
         <v>707.91468757073744</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -3511,7 +3616,7 @@
         <v>710.74634632101515</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -3532,7 +3637,7 @@
         <v>713.58933170631644</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -3553,7 +3658,7 @@
         <v>716.44368903312716</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -3574,7 +3679,7 @@
         <v>719.30946378927911</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -3595,7 +3700,7 @@
         <v>722.18670164441573</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -3616,7 +3721,7 @@
         <v>725.07544845101074</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -3637,7 +3742,7 @@
         <v>727.97575024480466</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -3658,7 +3763,7 @@
         <v>730.88765324579435</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -3679,7 +3784,7 @@
         <v>733.81120385875693</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
@@ -3700,7 +3805,7 @@
         <v>736.74644867421011</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -3721,7 +3826,7 @@
         <v>739.69343446890707</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -3742,7 +3847,7 @@
         <v>742.65220820676768</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
@@ -3763,7 +3868,7 @@
         <v>745.62281703960616</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
@@ -3784,7 +3889,7 @@
         <v>748.60530830777134</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -3805,7 +3910,7 @@
         <v>751.59972954099067</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
@@ -3826,7 +3931,7 @@
         <v>754.60612845915603</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
@@ -3847,7 +3952,7 @@
         <v>757.62455297299311</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
@@ -3868,7 +3973,7 @@
         <v>760.65505118487636</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
@@ -3889,7 +3994,7 @@
         <v>763.6976713896147</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
@@ -3910,7 +4015,7 @@
         <v>766.75246207517921</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
@@ -3931,7 +4036,7 @@
         <v>769.81947192348889</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
@@ -3952,7 +4057,7 @@
         <v>772.89874981116736</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
@@ -3973,7 +4078,7 @@
         <v>775.99034481041599</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
@@ -3994,7 +4099,7 @@
         <v>779.09430618965416</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -4015,7 +4120,7 @@
         <v>782.21068341442151</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
@@ -4036,7 +4141,7 @@
         <v>785.3395261480764</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
@@ -4057,7 +4162,7 @@
         <v>788.48088425266906</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
@@ -4078,7 +4183,7 @@
         <v>791.63480778966914</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
@@ -4099,7 +4204,7 @@
         <v>794.80134702083888</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
@@ -4120,7 +4225,7 @@
         <v>797.98055240893154</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
@@ -4141,7 +4246,7 @@
         <v>801.17247461856459</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
@@ -4162,7 +4267,7 @@
         <v>804.37716451703454</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
@@ -4183,7 +4288,7 @@
         <v>807.5946731751028</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
@@ -4204,7 +4309,7 @@
         <v>810.82505186781054</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
@@ -4225,7 +4330,7 @@
         <v>814.06835207526456</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
@@ -4246,7 +4351,7 @@
         <v>817.32462548356852</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
@@ -4267,7 +4372,7 @@
         <v>820.59392398552154</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
@@ -4288,7 +4393,7 @@
         <v>823.87629968146211</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
@@ -4309,7 +4414,7 @@
         <v>827.17180488017038</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
@@ -4330,7 +4435,7 @@
         <v>830.48049209971214</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
@@ -4351,7 +4456,7 @@
         <v>833.80241406810819</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
@@ -4372,7 +4477,7 @@
         <v>837.13762372438214</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
@@ -4393,7 +4498,7 @@
         <v>840.48617421925883</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
@@ -4414,7 +4519,7 @@
         <v>843.84811891615391</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
@@ -4435,7 +4540,7 @@
         <v>847.2235113918141</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
@@ -4456,7 +4561,7 @@
         <v>850.61240543736494</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
@@ -4477,7 +4582,7 @@
         <v>854.01485505912569</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
@@ -4498,7 +4603,7 @@
         <v>857.43091447936604</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
@@ -4519,7 +4624,7 @@
         <v>860.86063813726651</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
@@ -4540,7 +4645,7 @@
         <v>864.30408068982069</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
@@ -4561,7 +4666,7 @@
         <v>867.76129701259197</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
@@ -4582,7 +4687,7 @@
         <v>871.23234220064478</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
@@ -4603,7 +4708,7 @@
         <v>874.71727156944689</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
@@ -4624,7 +4729,7 @@
         <v>878.21614065571339</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -4645,7 +4750,7 @@
         <v>881.72900521833799</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
@@ -4666,7 +4771,7 @@
         <v>885.25592123920796</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
@@ -4687,7 +4792,7 @@
         <v>888.79694492416456</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
@@ -4708,7 +4813,7 @@
         <v>892.35213270387612</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
@@ -4729,7 +4834,7 @@
         <v>895.92154123468208</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
@@ -4750,7 +4855,7 @@
         <v>899.50522739961161</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
@@ -4771,7 +4876,7 @@
         <v>903.10324830922764</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
@@ -4792,7 +4897,7 @@
         <v>906.71566130247083</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
@@ -4813,7 +4918,7 @@
         <v>910.34252394767827</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
@@ -4834,7 +4939,7 @@
         <v>913.98389404345653</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
@@ -4855,7 +4960,7 @@
         <v>917.63982961964211</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
@@ -4876,7 +4981,7 @@
         <v>921.31038893811638</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
@@ -4897,7 +5002,7 @@
         <v>924.99563049385324</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
@@ -4918,7 +5023,7 @@
         <v>928.69561301585054</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
@@ -4939,7 +5044,7 @@
         <v>932.41039546791581</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
@@ -4960,7 +5065,7 @@
         <v>936.14003704977222</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
@@ -4981,7 +5086,7 @@
         <v>939.88459719796083</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
@@ -5002,7 +5107,7 @@
         <v>943.64413558677188</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>217</v>
       </c>
@@ -5023,7 +5128,7 @@
         <v>947.41871212911792</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
@@ -5044,7 +5149,7 @@
         <v>951.20838697763975</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>219</v>
       </c>
@@ -5065,7 +5170,7 @@
         <v>955.01322052555042</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
@@ -5086,7 +5191,7 @@
         <v>958.83327340765391</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
@@ -5107,7 +5212,7 @@
         <v>962.66860650127637</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
@@ -5128,7 +5233,7 @@
         <v>966.51928092728485</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
@@ -5149,7 +5254,7 @@
         <v>970.38535805098945</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
@@ -5170,7 +5275,7 @@
         <v>974.26689948319108</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
@@ -5191,7 +5296,7 @@
         <v>978.16396708111279</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
@@ -5212,7 +5317,7 @@
         <v>982.07662294944748</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -5233,7 +5338,7 @@
         <v>986.00492944123107</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
@@ -5254,7 +5359,7 @@
         <v>989.94894915900659</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
@@ -5275,7 +5380,7 @@
         <v>993.90874495563912</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
@@ -5296,7 +5401,7 @@
         <v>997.88437993547996</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
@@ -5317,7 +5422,7 @@
         <v>1001.8759174552106</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
@@ -5338,7 +5443,7 @@
         <v>1005.883421125036</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
@@ -5359,7 +5464,7 @@
         <v>1009.9069548095285</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
@@ -5380,7 +5485,7 @@
         <v>1013.9465826287633</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
@@ -5401,7 +5506,7 @@
         <v>1018.0023689592781</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
@@ -5422,7 +5527,7 @@
         <v>1022.0743784351216</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
@@ -5443,7 +5548,7 @@
         <v>1026.1626759488718</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
@@ -5464,7 +5569,7 @@
         <v>1030.2673266526544</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
@@ -5485,7 +5590,7 @@
         <v>1034.3883959592786</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
@@ -5506,7 +5611,7 @@
         <v>1038.5259495431092</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
@@ -5527,7 +5632,7 @@
         <v>1042.6800533412897</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>242</v>
       </c>
@@ -5548,7 +5653,7 @@
         <v>1046.8507735546445</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>243</v>
       </c>
@@ -5569,7 +5674,7 @@
         <v>1051.0381766488426</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>244</v>
       </c>
@@ -5590,7 +5695,7 @@
         <v>1055.2423293554457</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>245</v>
       </c>
@@ -5611,7 +5716,7 @@
         <v>1059.4632986728684</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>246</v>
       </c>
@@ -5632,7 +5737,7 @@
         <v>1063.7011518675718</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>247</v>
       </c>
@@ -5653,7 +5758,7 @@
         <v>1067.9559564750525</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>248</v>
       </c>
@@ -5674,7 +5779,7 @@
         <v>1072.2277803009492</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>249</v>
       </c>
@@ -5695,7 +5800,7 @@
         <v>1076.5166914221481</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>250</v>
       </c>
@@ -5716,7 +5821,7 @@
         <v>1080.8227581878309</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>251</v>
       </c>
@@ -5737,7 +5842,7 @@
         <v>1085.1460492205806</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>252</v>
       </c>
@@ -5758,7 +5863,7 @@
         <v>1089.4866334174876</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>253</v>
       </c>
@@ -5779,7 +5884,7 @@
         <v>1093.8445799511392</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>254</v>
       </c>
@@ -5800,7 +5905,7 @@
         <v>1098.2199582709582</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>255</v>
       </c>
@@ -5821,7 +5926,7 @@
         <v>1102.612838104018</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>256</v>
       </c>
@@ -5842,7 +5947,7 @@
         <v>1107.0232894564397</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>257</v>
       </c>
@@ -5863,7 +5968,7 @@
         <v>1111.4513826142647</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>258</v>
       </c>
@@ -5884,7 +5989,7 @@
         <v>1115.897188144736</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>259</v>
       </c>
@@ -5905,7 +6010,7 @@
         <v>1120.360776897287</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>260</v>
       </c>
@@ -5926,7 +6031,7 @@
         <v>1124.8422200048808</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>261</v>
       </c>
@@ -5947,7 +6052,7 @@
         <v>1129.3415888848831</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>262</v>
       </c>
@@ -5968,7 +6073,7 @@
         <v>1133.8589552404592</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>263</v>
       </c>
@@ -5989,7 +6094,7 @@
         <v>1138.3943910613889</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>264</v>
       </c>
@@ -6010,7 +6115,7 @@
         <v>1142.9479686256382</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>265</v>
       </c>
@@ -6031,7 +6136,7 @@
         <v>1147.519760500174</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>266</v>
       </c>
@@ -6052,7 +6157,7 @@
         <v>1152.1098395421868</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>267</v>
       </c>
@@ -6073,7 +6178,7 @@
         <v>1156.7182789003127</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>268</v>
       </c>
@@ -6094,7 +6199,7 @@
         <v>1161.3451520159142</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>269</v>
       </c>
@@ -6115,7 +6220,7 @@
         <v>1165.9905326240114</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>270</v>
       </c>
@@ -6136,7 +6241,7 @@
         <v>1170.6544947545044</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>271</v>
       </c>
@@ -6157,7 +6262,7 @@
         <v>1175.3371127335122</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>272</v>
       </c>
@@ -6178,7 +6283,7 @@
         <v>1180.0384611844202</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>273</v>
       </c>
@@ -6199,7 +6304,7 @@
         <v>1184.7586150291609</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>274</v>
       </c>
@@ -6220,7 +6325,7 @@
         <v>1189.4976494893199</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>275</v>
       </c>
@@ -6241,7 +6346,7 @@
         <v>1194.2556400872418</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>276</v>
       </c>
@@ -6262,7 +6367,7 @@
         <v>1199.0326626476017</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>277</v>
       </c>
@@ -6283,7 +6388,7 @@
         <v>1203.8287932982203</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>278</v>
       </c>
@@ -6304,7 +6409,7 @@
         <v>1208.6441084714024</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>279</v>
       </c>
@@ -6325,7 +6430,7 @@
         <v>1213.4786849052762</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>280</v>
       </c>
@@ -6346,7 +6451,7 @@
         <v>1218.3325996448984</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>281</v>
       </c>
@@ -6367,7 +6472,7 @@
         <v>1223.2059300434776</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>282</v>
       </c>
@@ -6388,7 +6493,7 @@
         <v>1228.0987537636538</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>283</v>
       </c>
@@ -6409,7 +6514,7 @@
         <v>1233.0111487787217</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>284</v>
       </c>
@@ -6430,7 +6535,7 @@
         <v>1237.9431933737942</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>285</v>
       </c>
@@ -6451,7 +6556,7 @@
         <v>1242.8949661473162</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>286</v>
       </c>
@@ -6472,7 +6577,7 @@
         <v>1247.8665460118791</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>287</v>
       </c>
@@ -6493,7 +6598,7 @@
         <v>1252.8580121959676</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>288</v>
       </c>
@@ -6514,7 +6619,7 @@
         <v>1257.8694442447159</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>289</v>
       </c>
@@ -6535,7 +6640,7 @@
         <v>1262.9009220217122</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>290</v>
       </c>
@@ -6556,7 +6661,7 @@
         <v>1267.9525257098139</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>291</v>
       </c>
@@ -6577,7 +6682,7 @@
         <v>1273.0243358126609</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>292</v>
       </c>
@@ -6598,7 +6703,7 @@
         <v>1278.1164331558975</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>293</v>
       </c>
@@ -6619,7 +6724,7 @@
         <v>1283.228898888512</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>294</v>
       </c>
@@ -6640,7 +6745,7 @@
         <v>1288.3618144840584</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>295</v>
       </c>
@@ -6661,7 +6766,7 @@
         <v>1293.5152617419953</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>296</v>
       </c>
@@ -6682,7 +6787,7 @@
         <v>1298.6893227889668</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>297</v>
       </c>
@@ -6703,7 +6808,7 @@
         <v>1303.8840800801408</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>298</v>
       </c>
@@ -6724,7 +6829,7 @@
         <v>1309.0996164004318</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>299</v>
       </c>
@@ -6745,7 +6850,7 @@
         <v>1314.3360148660722</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>300</v>
       </c>
@@ -6766,7 +6871,7 @@
         <v>1319.5933589254855</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>301</v>
       </c>
@@ -6787,7 +6892,7 @@
         <v>1324.8717323612073</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>302</v>
       </c>
@@ -6808,7 +6913,7 @@
         <v>1330.1712192906416</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>303</v>
       </c>
@@ -6829,7 +6934,7 @@
         <v>1335.4919041678077</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>304</v>
       </c>
@@ -6850,7 +6955,7 @@
         <v>1340.8338717845036</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>305</v>
       </c>
@@ -6871,7 +6976,7 @@
         <v>1346.1972072716453</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>306</v>
       </c>
@@ -6892,7 +6997,7 @@
         <v>1351.5819961007219</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>307</v>
       </c>
@@ -6913,7 +7018,7 @@
         <v>1356.9883240851341</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>308</v>
       </c>
@@ -6934,7 +7039,7 @@
         <v>1362.4162773814751</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>309</v>
       </c>
@@ -6955,7 +7060,7 @@
         <v>1367.8659424909856</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>310</v>
       </c>
@@ -6976,7 +7081,7 @@
         <v>1373.337406260951</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>311</v>
       </c>
@@ -6997,7 +7102,7 @@
         <v>1378.8307558859815</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>312</v>
       </c>
@@ -7018,7 +7123,7 @@
         <v>1384.3460789095261</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>313</v>
       </c>
@@ -7039,7 +7144,7 @@
         <v>1389.8834632251528</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>314</v>
       </c>
@@ -7060,7 +7165,7 @@
         <v>1395.442997078062</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>315</v>
       </c>
@@ -7081,7 +7186,7 @@
         <v>1401.0247690663673</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>316</v>
       </c>
@@ -7102,7 +7207,7 @@
         <v>1406.6288681426668</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>317</v>
       </c>
@@ -7123,7 +7228,7 @@
         <v>1412.2553836152074</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>318</v>
       </c>
@@ -7144,7 +7249,7 @@
         <v>1417.9044051496894</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>319</v>
       </c>
@@ -7165,7 +7270,7 @@
         <v>1423.576022770314</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>320</v>
       </c>
@@ -7186,7 +7291,7 @@
         <v>1429.270326861355</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>321</v>
       </c>
@@ -7207,7 +7312,7 @@
         <v>1434.9874081687885</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>322</v>
       </c>
@@ -7228,7 +7333,7 @@
         <v>1440.7273578015156</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>323</v>
       </c>
@@ -7249,7 +7354,7 @@
         <v>1446.4902672327007</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>324</v>
       </c>
@@ -7270,7 +7375,7 @@
         <v>1452.2762283016345</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>325</v>
       </c>
@@ -7291,7 +7396,7 @@
         <v>1458.0853332148399</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>326</v>
       </c>
@@ -7312,7 +7417,7 @@
         <v>1463.9176745477016</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>327</v>
       </c>
@@ -7333,7 +7438,7 @@
         <v>1469.7733452458633</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>328</v>
       </c>
@@ -7354,7 +7459,7 @@
         <v>1475.6524386268575</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>329</v>
       </c>
@@ -7375,7 +7480,7 @@
         <v>1481.5550483813859</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>330</v>
       </c>
@@ -7396,7 +7501,7 @@
         <v>1487.4812685748911</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>331</v>
       </c>
@@ -7417,7 +7522,7 @@
         <v>1493.4311936491868</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>332</v>
       </c>
@@ -7438,7 +7543,7 @@
         <v>1499.4049184237956</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>333</v>
       </c>
@@ -7459,7 +7564,7 @@
         <v>1505.4025380974635</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>334</v>
       </c>
@@ -7480,7 +7585,7 @@
         <v>1511.4241482499056</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>335</v>
       </c>
@@ -7501,7 +7606,7 @@
         <v>1517.4698448428535</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>336</v>
       </c>
@@ -7522,7 +7627,7 @@
         <v>1523.539724222268</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>337</v>
       </c>
@@ -7543,7 +7648,7 @@
         <v>1529.6338831191533</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>338</v>
       </c>
@@ -7564,7 +7669,7 @@
         <v>1535.7524186515948</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>339</v>
       </c>
@@ -7585,7 +7690,7 @@
         <v>1541.8954283262137</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>340</v>
       </c>
@@ -7606,7 +7711,7 @@
         <v>1548.0630100395065</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>341</v>
       </c>
@@ -7627,7 +7732,7 @@
         <v>1554.2552620797069</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>342</v>
       </c>
@@ -7648,7 +7753,7 @@
         <v>1560.4722831280087</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>343</v>
       </c>
@@ -7669,7 +7774,7 @@
         <v>1566.7141722604865</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>344</v>
       </c>
@@ -7690,7 +7795,7 @@
         <v>1572.9810289495508</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>345</v>
       </c>
@@ -7711,7 +7816,7 @@
         <v>1579.2729530653451</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>346</v>
       </c>
@@ -7732,7 +7837,7 @@
         <v>1585.5900448776083</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>347</v>
       </c>
@@ -7753,7 +7858,7 @@
         <v>1591.9324050571304</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>348</v>
       </c>
@@ -7774,7 +7879,7 @@
         <v>1598.3001346773817</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>349</v>
       </c>
@@ -7795,7 +7900,7 @@
         <v>1604.693335216085</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>350</v>
       </c>
@@ -7816,7 +7921,7 @@
         <v>1611.112108556903</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>351</v>
       </c>
@@ -7837,7 +7942,7 @@
         <v>1617.5565569911851</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>352</v>
       </c>
@@ -7858,7 +7963,7 @@
         <v>1624.0267832191312</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>353</v>
       </c>
@@ -7879,7 +7984,7 @@
         <v>1630.5228903520037</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>354</v>
       </c>
@@ -7900,7 +8005,7 @@
         <v>1637.0449819134083</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>355</v>
       </c>
@@ -7921,7 +8026,7 @@
         <v>1643.5931618410395</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>356</v>
       </c>
@@ -7942,7 +8047,7 @@
         <v>1650.1675344884279</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>357</v>
       </c>
@@ -7963,7 +8068,7 @@
         <v>1656.7682046263944</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>358</v>
       </c>
@@ -7984,7 +8089,7 @@
         <v>1663.3952774448553</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>359</v>
       </c>
@@ -8005,7 +8110,7 @@
         <v>1670.0488585546846</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>360</v>
       </c>
@@ -8026,7 +8131,7 @@
         <v>1676.7290539888781</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>361</v>
       </c>
@@ -8047,7 +8152,7 @@
         <v>1683.4359702048241</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>362</v>
       </c>
@@ -8068,7 +8173,7 @@
         <v>1690.1697140856413</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>363</v>
       </c>
@@ -8089,7 +8194,7 @@
         <v>1696.9303929419839</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>364</v>
       </c>
@@ -8110,7 +8215,7 @@
         <v>1703.7181145137874</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>365</v>
       </c>
@@ -8139,4 +8244,326 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CEC9E1-A9D2-3146-BB28-890F47AA3275}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>2.2699E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>0.21179002</v>
+      </c>
+      <c r="F11">
+        <v>0.21117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>4.803E-3</v>
+      </c>
+      <c r="F17">
+        <v>4.79E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <f>1/C3</f>
+        <v>44.052863436123346</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <f>D24*1/C11</f>
+        <v>208.00254627731442</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <f>F24*C17</f>
+        <v>0.99903622976994122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <f>1/F3</f>
+        <v>44.054804176395436</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <f>D25*1/F11</f>
+        <v>208.62245667658965</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <f>F25*F17</f>
+        <v>0.99930156748086441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E0C045-6BDC-624A-96DA-5DF3D7D6E048}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>8807</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>E3*(1/C3)</f>
+        <v>1.1354604292040422E-4</v>
+      </c>
+      <c r="G3">
+        <f>F3*C4</f>
+        <v>0.91148518224139885</v>
+      </c>
+      <c r="H3">
+        <f>G3*C8</f>
+        <v>1.0026337004655388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>8027.45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>181.85</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>E5*(1/C4)</f>
+        <v>1.2457256040212023E-4</v>
+      </c>
+      <c r="G5">
+        <f>F5*C3</f>
+        <v>1.0971105394614729</v>
+      </c>
+      <c r="H5">
+        <f>G5*(1/C8)</f>
+        <v>0.99737321769224807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>181.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>2.2679999999999999E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>E8*(1/C3)</f>
+        <v>1.1354604292040422E-4</v>
+      </c>
+      <c r="G8">
+        <f>F8*(1/C7)</f>
+        <v>5.0064392822047714E-3</v>
+      </c>
+      <c r="H8">
+        <f>G8*(C6)</f>
+        <v>0.91027079029047153</v>
+      </c>
+      <c r="I8">
+        <f>H8*C8</f>
+        <v>1.0012978693195187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>8827.17</v>
+      </c>
+      <c r="E10">
+        <f>C10/C11</f>
+        <v>1.0014453572153843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>8814.43</v>
+      </c>
+      <c r="E11">
+        <f>100000*E10</f>
+        <v>100144.53572153843</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>